--- a/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_30.xlsx
+++ b/pickle/rolling_corr_excel_target_index_MSCI EM_simulation_term_type_2_window_size_30.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="252">
   <si>
     <t>MSCI EM_BBA-10Y Spread</t>
   </si>
@@ -35,24 +35,6 @@
     <t>MSCI EM_CNY/USD</t>
   </si>
   <si>
-    <t>MSCI EM_CPB 선진국 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 선진국 수출</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계교역</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 세계생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 산업생산</t>
-  </si>
-  <si>
-    <t>MSCI EM_CPB 이머징 수출</t>
-  </si>
-  <si>
     <t>MSCI EM_CPI 주거비</t>
   </si>
   <si>
@@ -203,18 +185,9 @@
     <t>MSCI EM_Nikkei225 P/E</t>
   </si>
   <si>
-    <t>MSCI EM_OECD ASIA 5 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_OECD G7 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OECD 소비자물가</t>
   </si>
   <si>
-    <t>MSCI EM_OECD+6NME 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_OITP 인덱스</t>
   </si>
   <si>
@@ -374,12 +347,6 @@
     <t>MSCI EM_두바이유가</t>
   </si>
   <si>
-    <t>MSCI EM_러시아 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_러시아 수출 YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 10년 투기적포지션</t>
   </si>
   <si>
@@ -401,18 +368,12 @@
     <t>MSCI EM_미국 NAHB 주택시장지수</t>
   </si>
   <si>
-    <t>MSCI EM_미국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 PD 일평균 국채거래량</t>
   </si>
   <si>
     <t>MSCI EM_미국 REER</t>
   </si>
   <si>
-    <t>MSCI EM_미국 S&amp;P 케이스쉴러 주택가격</t>
-  </si>
-  <si>
     <t>MSCI EM_미국 개인근로소득 YoY</t>
   </si>
   <si>
@@ -515,9 +476,6 @@
     <t>MSCI EM_발틱 해운임지수</t>
   </si>
   <si>
-    <t>MSCI EM_브라질 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_브라질 REER</t>
   </si>
   <si>
@@ -557,12 +515,6 @@
     <t>MSCI EM_유럽 M3 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_유럽 OECD 경기선행지수</t>
-  </si>
-  <si>
-    <t>MSCI EM_유럽 산업생산(건설 제외) YoY</t>
-  </si>
-  <si>
     <t>MSCI EM_유럽 소매판매 YoY</t>
   </si>
   <si>
@@ -584,9 +536,6 @@
     <t>MSCI EM_유로존 Core CPI</t>
   </si>
   <si>
-    <t>MSCI EM_유로존 Credit Impulse</t>
-  </si>
-  <si>
     <t>MSCI EM_유로존 ESI</t>
   </si>
   <si>
@@ -596,9 +545,6 @@
     <t>MSCI EM_유로존 소비자신뢰지수</t>
   </si>
   <si>
-    <t>MSCI EM_인도 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_인도 REER</t>
   </si>
   <si>
@@ -614,15 +560,9 @@
     <t>MSCI EM_일본 ESI</t>
   </si>
   <si>
-    <t>MSCI EM_일본 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 REER</t>
   </si>
   <si>
-    <t>MSCI EM_일본 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_일본 산업생산 YoY</t>
   </si>
   <si>
@@ -659,9 +599,6 @@
     <t>MSCI EM_중국 M1 YoY</t>
   </si>
   <si>
-    <t>MSCI EM_중국 OECD 경기선행지수</t>
-  </si>
-  <si>
     <t>MSCI EM_중국 PPI</t>
   </si>
   <si>
@@ -699,18 +636,6 @@
   </si>
   <si>
     <t>MSCI EM_한국 Core CPI</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M1 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M2 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 M3 YoY</t>
-  </si>
-  <si>
-    <t>MSCI EM_한국 OECD 경기선행지수</t>
   </si>
   <si>
     <t>MSCI EM_한국 PPI</t>
@@ -1212,7 +1137,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JO4"/>
+  <dimension ref="A1:IP4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1220,7 +1145,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:275">
+    <row r="1" spans="1:250">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1968,913 +1893,763 @@
       <c r="IP1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="IQ1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:250">
+      <c r="A2" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="IR1" s="1" t="s">
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="CZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DL2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DX2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="DY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="DZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ED2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EI2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EP2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ER2" t="n">
+        <v>1</v>
+      </c>
+      <c r="ES2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ET2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EU2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="EV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="EZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FJ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="FY2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="FZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GN2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="GQ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GR2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GT2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HD2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HF2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HH2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HI2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HM2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HO2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HP2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HQ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HR2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HS2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HT2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="HU2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HW2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HX2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HY2" t="n">
+        <v>1</v>
+      </c>
+      <c r="HZ2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IB2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IC2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="ID2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IG2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IH2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="II2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IJ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IM2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IN2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="IO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IP2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:250">
+      <c r="A3" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="IS1" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="IT1" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="IU1" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="IV1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="IW1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="IX1" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="IY1" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="IZ1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="JA1" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="JB1" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="JC1" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="JD1" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="JE1" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="JF1" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="JG1" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="JH1" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="JI1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="JJ1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="JK1" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="JL1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="JM1" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="JN1" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="JO1" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:275">
-      <c r="A2" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1</v>
-      </c>
-      <c r="T2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BR2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="BW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="CY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="CZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="DY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="DZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="ED2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ER2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ES2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ET2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="EW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="EZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GI2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HO2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HQ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HU2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HV2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HW2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HX2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="HY2" t="n">
-        <v>1</v>
-      </c>
-      <c r="HZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IA2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="ID2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IE2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IF2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IH2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="II2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IK2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IO2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IP2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IQ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IR2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IS2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="IY2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="IZ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JA2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JB2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JC2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JE2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JF2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JG2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JH2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JI2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JJ2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JK2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JL2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JM2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="JN2" t="n">
-        <v>1</v>
-      </c>
-      <c r="JO2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:275">
-      <c r="A3" s="1" t="s">
-        <v>275</v>
-      </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
@@ -2882,346 +2657,346 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
         <v>2</v>
       </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3</v>
-      </c>
-      <c r="H3" t="n">
+      <c r="AA3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
+      <c r="AE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
         <v>2</v>
       </c>
-      <c r="J3" t="n">
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP3" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
+      <c r="AQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE3" t="n">
         <v>2</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
+      <c r="BF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BU3" t="n">
         <v>2</v>
       </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="BV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW3" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="BX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BY3" t="n">
         <v>2</v>
       </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB3" t="n">
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="CX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB3" t="n">
         <v>2</v>
       </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
+      <c r="DC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="DD3" t="n">
         <v>2</v>
       </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK3" t="n">
+      <c r="DE3" t="n">
         <v>2</v>
       </c>
-      <c r="BL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BS3" t="n">
-        <v>2</v>
-      </c>
-      <c r="BT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CG3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CH3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM3" t="n">
-        <v>2</v>
-      </c>
-      <c r="CN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CV3" t="n">
-        <v>1</v>
-      </c>
-      <c r="CW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="CY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DC3" t="n">
-        <v>1</v>
-      </c>
-      <c r="DD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="DE3" t="n">
-        <v>3</v>
-      </c>
       <c r="DF3" t="n">
         <v>3</v>
       </c>
       <c r="DG3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
       </c>
       <c r="DI3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="DK3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DL3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DN3" t="n">
         <v>1</v>
@@ -3230,19 +3005,19 @@
         <v>2</v>
       </c>
       <c r="DP3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DQ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DR3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>0</v>
@@ -3254,295 +3029,295 @@
         <v>3</v>
       </c>
       <c r="DX3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DY3" t="n">
         <v>0</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EB3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="ED3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EE3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EF3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="EG3" t="n">
         <v>0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="EI3" t="n">
         <v>0</v>
       </c>
       <c r="EJ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EK3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EL3" t="n">
         <v>2</v>
       </c>
-      <c r="EK3" t="n">
+      <c r="EM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="EQ3" t="n">
         <v>2</v>
       </c>
-      <c r="EL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="EN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EP3" t="n">
+      <c r="ER3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ES3" t="n">
+        <v>3</v>
+      </c>
+      <c r="ET3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="EX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="EZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FD3" t="n">
         <v>2</v>
       </c>
-      <c r="EQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="ER3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ES3" t="n">
-        <v>3</v>
-      </c>
-      <c r="ET3" t="n">
-        <v>0</v>
-      </c>
-      <c r="EU3" t="n">
+      <c r="FE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FH3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FL3" t="n">
         <v>2</v>
       </c>
-      <c r="EV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="EX3" t="n">
+      <c r="FM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="FQ3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="FZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GC3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GD3" t="n">
         <v>2</v>
       </c>
-      <c r="EY3" t="n">
+      <c r="GE3" t="n">
         <v>2</v>
       </c>
-      <c r="EZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FA3" t="n">
+      <c r="GF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="GL3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GM3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GO3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GS3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="GX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="GZ3" t="n">
         <v>2</v>
       </c>
-      <c r="FB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FC3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FF3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FI3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FK3" t="n">
-        <v>1</v>
-      </c>
-      <c r="FL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FM3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FQ3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FR3" t="n">
-        <v>2</v>
-      </c>
-      <c r="FS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="FX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="FZ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GB3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GF3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>1</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>2</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
       <c r="HA3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="HB3" t="n">
         <v>0</v>
       </c>
       <c r="HC3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="HD3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HE3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HF3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HG3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="HH3" t="n">
         <v>0</v>
       </c>
       <c r="HI3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HJ3" t="n">
         <v>3</v>
       </c>
       <c r="HK3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HL3" t="n">
         <v>3</v>
       </c>
       <c r="HM3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="HN3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HP3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HQ3" t="n">
         <v>2</v>
@@ -3551,978 +3326,828 @@
         <v>3</v>
       </c>
       <c r="HS3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="HT3" t="n">
         <v>3</v>
       </c>
       <c r="HU3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HV3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HY3" t="n">
+        <v>3</v>
+      </c>
+      <c r="HZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="ID3" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IF3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IG3" t="n">
         <v>2</v>
       </c>
-      <c r="HV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>3</v>
-      </c>
-      <c r="HZ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IB3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="ID3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IF3" t="n">
+      <c r="IH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="II3" t="n">
+        <v>3</v>
+      </c>
+      <c r="IJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="IK3" t="n">
         <v>2</v>
       </c>
-      <c r="IG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="II3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IJ3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IK3" t="n">
-        <v>0</v>
-      </c>
       <c r="IL3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="IM3" t="n">
         <v>0</v>
       </c>
       <c r="IN3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="IO3" t="n">
         <v>0</v>
       </c>
       <c r="IP3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IQ3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IS3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IT3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IU3" t="n">
-        <v>1</v>
-      </c>
-      <c r="IV3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IW3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IX3" t="n">
-        <v>3</v>
-      </c>
-      <c r="IY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="IZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JA3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JD3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JE3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JH3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JI3" t="n">
-        <v>2</v>
-      </c>
-      <c r="JJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JK3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JL3" t="n">
-        <v>3</v>
-      </c>
-      <c r="JM3" t="n">
-        <v>1</v>
-      </c>
-      <c r="JN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="JO3" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:275">
+    <row r="4" spans="1:250">
       <c r="A4" s="1" t="s">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.9207734591177733</v>
+        <v>-0.9234702383559784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9097177473566479</v>
+        <v>0.9205181965740346</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8957478143897751</v>
+        <v>0.8778238858636176</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8857205567149448</v>
+        <v>0.8087447082073208</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6507534924266593</v>
+        <v>0.506391595213515</v>
       </c>
       <c r="G4" t="n">
-        <v>0.475837376588463</v>
+        <v>-0.4631990929849873</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9568389338645975</v>
+        <v>0.9209750941118575</v>
       </c>
       <c r="I4" t="n">
-        <v>0.942715149901483</v>
+        <v>0.9168601284303719</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9407852504542441</v>
+        <v>0.5660932492172736</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9702610475082306</v>
+        <v>0.460332544172741</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9531928158824231</v>
+        <v>-0.5880581280199735</v>
       </c>
       <c r="M4" t="n">
-        <v>0.8845122055071283</v>
+        <v>0.9427440497519755</v>
       </c>
       <c r="N4" t="n">
-        <v>0.9470563446393369</v>
+        <v>-0.8210043819747666</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9127089790010882</v>
+        <v>0.9316333497447949</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5101187849355219</v>
+        <v>0.922131272352508</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5355987507172133</v>
+        <v>0.8881555023802058</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.8180618804669979</v>
+        <v>0.5599022531323944</v>
       </c>
       <c r="S4" t="n">
-        <v>0.9490782111749732</v>
+        <v>0.680689007071575</v>
       </c>
       <c r="T4" t="n">
-        <v>-0.8478597496305091</v>
+        <v>-0.5397242681316806</v>
       </c>
       <c r="U4" t="n">
-        <v>0.8514256553453675</v>
+        <v>0.8832479589516369</v>
       </c>
       <c r="V4" t="n">
-        <v>0.7686781537743288</v>
+        <v>0.5550767452072218</v>
       </c>
       <c r="W4" t="n">
-        <v>0.8453246504377029</v>
+        <v>0.9457030656165415</v>
       </c>
       <c r="X4" t="n">
-        <v>0.6152039289724673</v>
+        <v>0.8872579407866361</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.6221730992147129</v>
+        <v>-0.205311048980841</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0.7483316142714099</v>
+        <v>0.8908194265939134</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.8869314922868419</v>
+        <v>0.6673044878953196</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.6708784054454777</v>
+        <v>0.9026790582017631</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.9448687555728201</v>
+        <v>0.6528795920355583</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.869770022123314</v>
+        <v>0.9232806025242278</v>
       </c>
       <c r="AE4" t="n">
-        <v>0.09369178635432467</v>
+        <v>0.7439138568144997</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.8774804989942077</v>
+        <v>0.7220523569891812</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.6491936229862155</v>
+        <v>0.6167744205558923</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.9079156557676541</v>
+        <v>-0.1008388367419619</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.7077184124952032</v>
+        <v>0.9619501111763704</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.931539500609075</v>
+        <v>-0.1386104889245144</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.7282747586168835</v>
+        <v>0.9172253499735729</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.4821644403443757</v>
+        <v>-0.1506842606646013</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.8011601760953873</v>
+        <v>-0.7830015670136417</v>
       </c>
       <c r="AN4" t="n">
-        <v>-0.2573938917053407</v>
+        <v>-0.8091840347709454</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.9639677598702725</v>
+        <v>0.941453259850411</v>
       </c>
       <c r="AP4" t="n">
-        <v>-0.3115252597147619</v>
+        <v>0.2901873678508449</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9186864643606061</v>
+        <v>-0.7957170572408051</v>
       </c>
       <c r="AR4" t="n">
-        <v>-0.2673969099106767</v>
+        <v>-0.6525516942489713</v>
       </c>
       <c r="AS4" t="n">
-        <v>-0.3810352047838544</v>
+        <v>0.9934259767742381</v>
       </c>
       <c r="AT4" t="n">
-        <v>-0.8100280498908804</v>
+        <v>0.9797679875036851</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.9483209066955706</v>
+        <v>0.9628218269667606</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.3233932656365437</v>
+        <v>0.986908489615639</v>
       </c>
       <c r="AW4" t="n">
-        <v>-0.8196378565629832</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.69329702321847</v>
+        <v>0.9956780496764055</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.9952770635872051</v>
+        <v>0.9719666853061443</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.9910711915758202</v>
+        <v>0.9550257219684244</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.9787428468528154</v>
+        <v>0.9833425835981924</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.9840216296251962</v>
+        <v>0.9222729242517597</v>
       </c>
       <c r="BC4" t="n">
-        <v>1</v>
+        <v>0.8438108603620724</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.9980145270712453</v>
+        <v>0.7950738874532517</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.9874524270453501</v>
+        <v>0.2330783436151793</v>
       </c>
       <c r="BF4" t="n">
-        <v>0.9721785768310403</v>
+        <v>0.8640317926104101</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.9630606762233872</v>
+        <v>-0.2938501041384888</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.8503545311850216</v>
+        <v>0.8308704117566348</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.9075332220921258</v>
+        <v>-0.1291752675935023</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.6981039454546747</v>
+        <v>0.8708466291841058</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.2917555119621973</v>
+        <v>0.8488171429159325</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.1968419164781173</v>
+        <v>0.5020537263122045</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.883018721078032</v>
+        <v>-0.6754382609685267</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.8779329431633508</v>
+        <v>0.9532528423026185</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.9570021472233792</v>
+        <v>0.8258779534807005</v>
       </c>
       <c r="BP4" t="n">
-        <v>-0.2700472948575255</v>
+        <v>0.9450120671983543</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.8500608310668204</v>
+        <v>0.5861107510999494</v>
       </c>
       <c r="BR4" t="n">
-        <v>-0.05141336979122589</v>
+        <v>0.932545416091608</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.8760853484475416</v>
+        <v>0.9147625709957401</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.838699317952137</v>
+        <v>0.5614851120826541</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.6128611824404615</v>
+        <v>0.8981114948754152</v>
       </c>
       <c r="BV4" t="n">
-        <v>-0.3912738904193844</v>
+        <v>0.8463812740145217</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.9839836459861758</v>
+        <v>0.8566786607656194</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.9090632775207869</v>
+        <v>-0.8245276559643751</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.9664277168480149</v>
+        <v>-0.4402345791645747</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.8070542362005609</v>
+        <v>0.7377269742038028</v>
       </c>
       <c r="CA4" t="n">
-        <v>0.9814752128726615</v>
+        <v>0.9359644015708813</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.9160909223801821</v>
+        <v>0.8477846303502607</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.6139528973544232</v>
+        <v>0.834176038471879</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.8661491265663758</v>
+        <v>0.3656534187322064</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.7208131534965058</v>
+        <v>0.6606559385664326</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.745950229465938</v>
+        <v>0.8272028590212273</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0.8843426679625702</v>
+        <v>-0.5251286025703842</v>
       </c>
       <c r="CH4" t="n">
-        <v>-0.403642178873393</v>
+        <v>0.7600529244482233</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.4127272534729014</v>
+        <v>0.4739833936123384</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.8425491685956541</v>
+        <v>-0.2328670361036803</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.8479603070984176</v>
+        <v>0.450775396562658</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.6706926033421728</v>
+        <v>-0.1718414414638735</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.3975492047941303</v>
+        <v>0.5513472417177302</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.7861741744171423</v>
+        <v>0.9252539617642638</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.8272955201552082</v>
+        <v>-0.4894502554967782</v>
       </c>
       <c r="CP4" t="n">
-        <v>-0.6832668785233147</v>
+        <v>0.8869270609131845</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.8342813300777081</v>
+        <v>0.9154634045813405</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.5415318090692569</v>
+        <v>-0.5092021405912465</v>
       </c>
       <c r="CS4" t="n">
-        <v>-0.1237291675081912</v>
+        <v>0.9320722737415573</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.3968182051896956</v>
+        <v>0.5036752092756264</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.129306003105533</v>
+        <v>0.8605598256794664</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.642514414673709</v>
+        <v>0.8818556248274738</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.9771821837383322</v>
+        <v>0.8777487248951891</v>
       </c>
       <c r="CX4" t="n">
-        <v>-0.3438136460136635</v>
+        <v>0.8521133480987305</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.7942185076185739</v>
+        <v>-0.6959682452921805</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.9723717321722445</v>
+        <v>0.7650806545118151</v>
       </c>
       <c r="DA4" t="n">
-        <v>-0.5272265494369919</v>
+        <v>0.7805993711490528</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.931165325970982</v>
+        <v>0.9321506698008691</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.6050411227053016</v>
+        <v>-0.4622295495207071</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.864778215154218</v>
+        <v>0.6650684926973419</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.8882132569552807</v>
+        <v>0.7608763170505151</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.8903803344641291</v>
+        <v>0.1807480781074053</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.9425690335655917</v>
+        <v>0.8143862012348423</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0.7143106984470255</v>
+        <v>-0.2441711245014226</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.7884255295949523</v>
+        <v>0.7434246669809051</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.5200363978732273</v>
+        <v>-0.7823947914969807</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.9130816813431106</v>
+        <v>0.4766205011813035</v>
       </c>
       <c r="DL4" t="n">
-        <v>-0.6642423710729507</v>
+        <v>-0.2344991965662317</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.7424670809081333</v>
+        <v>-0.8556550776349237</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.7863837343279112</v>
+        <v>0.8023464247984559</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.2294755053176496</v>
+        <v>0.3569735704171936</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.8825280853766655</v>
+        <v>-0.5288557873650783</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.8601316839801063</v>
+        <v>0.9252539617642638</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.82933543732417</v>
+        <v>0.9151341615934012</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.221343318896412</v>
+        <v>0.9401631420600489</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.7712026996905765</v>
+        <v>0.7570011142142672</v>
       </c>
       <c r="DU4" t="n">
-        <v>-0.7276703250771028</v>
+        <v>0.8498345052959714</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.4905037920661975</v>
+        <v>0.5213009006563516</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.311702067764466</v>
+        <v>0.8861518491445821</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0.7660391403542708</v>
+        <v>-0.941446609497305</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.7864277424336247</v>
+        <v>0.9412822504009359</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.8844693445196444</v>
+        <v>0.7464552273189046</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.3848463739014221</v>
+        <v>0.9509346900444089</v>
       </c>
       <c r="EB4" t="n">
-        <v>-0.587317690744096</v>
+        <v>0.9185654198306912</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.9156624620293744</v>
+        <v>0.6109150631305876</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.9771821837383322</v>
+        <v>-0.7488896645084333</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.9691429739718969</v>
+        <v>0.1697869101996565</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.8843049253061741</v>
+        <v>-0.1051535477337061</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.6707448846284577</v>
+        <v>0.822395569248232</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.9071006651679356</v>
+        <v>0.9367955755400563</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.3173654051561942</v>
+        <v>0.548509828015639</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.9009641885505496</v>
+        <v>0.846623323501426</v>
       </c>
       <c r="EK4" t="n">
-        <v>-0.9169582553165869</v>
+        <v>0.916977143634562</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.984990600088509</v>
+        <v>0.8654391476335725</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.7356340734057957</v>
+        <v>0.8306813627156854</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.9618159531465962</v>
+        <v>0.8545819795009787</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.9319172875841745</v>
+        <v>-0.9333351296434029</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.6263640475900272</v>
+        <v>0.8856152811022592</v>
       </c>
       <c r="EQ4" t="n">
-        <v>-0.7747214654336297</v>
+        <v>0.1960399827407725</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0.3022745392881859</v>
+        <v>0.8079579510906162</v>
       </c>
       <c r="ES4" t="n">
-        <v>-0.1792708936608418</v>
+        <v>-0.8707685359550076</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.8466836627059137</v>
+        <v>-0.8547040349663978</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.9551677972047621</v>
+        <v>-0.9148972197280099</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0.2691735482555473</v>
+        <v>0.7239654499041871</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.8744300429948556</v>
+        <v>0.796393900585034</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.9174507305184921</v>
+        <v>0.8620990953116411</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.8743981359709936</v>
+        <v>0.5969317691613493</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8331662331481235</v>
+        <v>0.7122117263217268</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.8852872495840926</v>
+        <v>0.5592991554783693</v>
       </c>
       <c r="FB4" t="n">
-        <v>-0.9494239780347745</v>
+        <v>-0.6824319437145409</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.9531353774338299</v>
+        <v>0.460332544172741</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.2490058630389736</v>
+        <v>0.9014339284039734</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.7006391199614231</v>
+        <v>0.6837975290487407</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.8600344042578852</v>
+        <v>0.3427752260753032</v>
       </c>
       <c r="FG4" t="n">
-        <v>-0.9245522488675738</v>
+        <v>-0.5035614189627233</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0.9117174836747529</v>
+        <v>0.8061695273683622</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.7556609178598976</v>
+        <v>-0.3688162222142068</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.7784071112490185</v>
+        <v>-0.2355774928085171</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.8166627006283261</v>
+        <v>-0.5783743925377158</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.9561784506354345</v>
+        <v>0.2347550582030196</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.6839340146087773</v>
+        <v>0.9400283611825522</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.5577956687705308</v>
+        <v>0.7954720857104068</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.3613730752166986</v>
+        <v>-0.5585110307454874</v>
       </c>
       <c r="FP4" t="n">
-        <v>-0.4007352923512008</v>
+        <v>-0.8534845876729837</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.5355987507172133</v>
+        <v>0.8450728675729069</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.9188200064464405</v>
+        <v>0.4668431883576075</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.3988906260812119</v>
+        <v>0.3813692760908915</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.5099233107935545</v>
+        <v>0.7700420228811669</v>
       </c>
       <c r="FU4" t="n">
-        <v>-0.2172215424110289</v>
+        <v>0.9400283611825522</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.8301007792681375</v>
+        <v>0.7838143760226821</v>
       </c>
       <c r="FW4" t="n">
-        <v>-0.4334239305894611</v>
+        <v>0.7319418374697161</v>
       </c>
       <c r="FX4" t="n">
-        <v>-0.1714434695313928</v>
+        <v>0.8139296227492331</v>
       </c>
       <c r="FY4" t="n">
-        <v>-0.5037527701141292</v>
+        <v>-0.6768752386120556</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.6699362819567378</v>
+        <v>-0.2327097684490116</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.4678476057820103</v>
+        <v>-0.6427152606206186</v>
       </c>
       <c r="GB4" t="n">
-        <v>0.1577085543184502</v>
+        <v>0.7335775140888054</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.9002887177880923</v>
+        <v>0.7306287643330636</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.666040056977436</v>
+        <v>0.4914879505328259</v>
       </c>
       <c r="GE4" t="n">
-        <v>-0.311561638418233</v>
+        <v>0.9140010125171468</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0.7809385153646479</v>
+        <v>0.8931722738201244</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.8773122614991619</v>
+        <v>0.4960047011181585</v>
       </c>
       <c r="GH4" t="n">
-        <v>0.3928277848352589</v>
+        <v>0.8744075823053279</v>
       </c>
       <c r="GI4" t="n">
-        <v>-0.9043297170290812</v>
+        <v>-0.7668230695061745</v>
       </c>
       <c r="GJ4" t="n">
-        <v>0.5905033539364369</v>
+        <v>0</v>
       </c>
       <c r="GK4" t="n">
-        <v>0.7690656540920126</v>
+        <v>-0.1581744213189361</v>
       </c>
       <c r="GL4" t="n">
-        <v>0.9002887177880923</v>
+        <v>0.3038751746801408</v>
       </c>
       <c r="GM4" t="n">
-        <v>0.4118119188486954</v>
+        <v>0.9445470190895909</v>
       </c>
       <c r="GN4" t="n">
-        <v>0.869838511499433</v>
+        <v>0.8789205870312582</v>
       </c>
       <c r="GO4" t="n">
-        <v>-0.2507514935168739</v>
+        <v>-0.5713113167042179</v>
       </c>
       <c r="GP4" t="n">
-        <v>0.7698057590486723</v>
+        <v>-0.6745002155531872</v>
       </c>
       <c r="GQ4" t="n">
-        <v>-0.7795238653572512</v>
+        <v>3.38819680637715e-16</v>
       </c>
       <c r="GR4" t="n">
-        <v>0.1112405024479462</v>
+        <v>3.38819680637715e-16</v>
       </c>
       <c r="GS4" t="n">
-        <v>0.6937943255117833</v>
+        <v>0.7437684705747296</v>
       </c>
       <c r="GT4" t="n">
-        <v>-0.2606727968513444</v>
+        <v>0.6852588465041873</v>
       </c>
       <c r="GU4" t="n">
-        <v>0.6801231066942719</v>
+        <v>0</v>
       </c>
       <c r="GV4" t="n">
-        <v>0.7921915372194975</v>
+        <v>0.3168568915734785</v>
       </c>
       <c r="GW4" t="n">
-        <v>0.6732129394621484</v>
+        <v>0.2739244176986517</v>
       </c>
       <c r="GX4" t="n">
-        <v>0.4992321983715042</v>
+        <v>0.5298805879793801</v>
       </c>
       <c r="GY4" t="n">
-        <v>0.8929169189378453</v>
+        <v>0.6247112848210314</v>
       </c>
       <c r="GZ4" t="n">
-        <v>0.8842329828023757</v>
+        <v>-0.6076894601784661</v>
       </c>
       <c r="HA4" t="n">
-        <v>0.2220543591329622</v>
+        <v>0.8290228055249982</v>
       </c>
       <c r="HB4" t="n">
-        <v>0.8134157892736507</v>
+        <v>0.6969026683751939</v>
       </c>
       <c r="HC4" t="n">
-        <v>-0.8071663796695917</v>
+        <v>-0.4593317924894728</v>
       </c>
       <c r="HD4" t="n">
-        <v>-0.2845719615753972</v>
+        <v>-0.7424100551381474</v>
       </c>
       <c r="HE4" t="n">
-        <v>-0.2296850391354427</v>
+        <v>0.4292303295885519</v>
       </c>
       <c r="HF4" t="n">
-        <v>0.4105265860808581</v>
+        <v>-0.3204951227846238</v>
       </c>
       <c r="HG4" t="n">
-        <v>0.9204175850243501</v>
+        <v>0.4980864570052007</v>
       </c>
       <c r="HH4" t="n">
-        <v>-0.780887727760627</v>
+        <v>0.9424296028782806</v>
       </c>
       <c r="HI4" t="n">
-        <v>0.9040801909988277</v>
+        <v>-0.8279107000691889</v>
       </c>
       <c r="HJ4" t="n">
-        <v>-0.7605841371526928</v>
+        <v>0.3022958513102062</v>
       </c>
       <c r="HK4" t="n">
-        <v>-0.7268371375205691</v>
+        <v>0.3156737929203492</v>
       </c>
       <c r="HL4" t="n">
-        <v>-0.2845719615753971</v>
+        <v>0.8162972788350077</v>
       </c>
       <c r="HM4" t="n">
-        <v>-0.2845719615753971</v>
+        <v>0.8058738212445788</v>
       </c>
       <c r="HN4" t="n">
-        <v>0.7799480593607245</v>
+        <v>-0.2558043511700256</v>
       </c>
       <c r="HO4" t="n">
-        <v>0.7236532724303938</v>
+        <v>-0.1049463636709901</v>
       </c>
       <c r="HP4" t="n">
-        <v>-0.2845719615753972</v>
+        <v>-0.4814521340473923</v>
       </c>
       <c r="HQ4" t="n">
-        <v>0.232912869065935</v>
+        <v>-0.1305872581885524</v>
       </c>
       <c r="HR4" t="n">
-        <v>0.3499153464028482</v>
+        <v>-0.7677150661835526</v>
       </c>
       <c r="HS4" t="n">
-        <v>0.5673715076367645</v>
+        <v>0.9330424717836924</v>
       </c>
       <c r="HT4" t="n">
-        <v>0.7507532866245702</v>
+        <v>-0.3883595501266441</v>
       </c>
       <c r="HU4" t="n">
-        <v>-0.6610414282238878</v>
+        <v>0.688536272878743</v>
       </c>
       <c r="HV4" t="n">
-        <v>-0.8988633141536105</v>
+        <v>0.5651859836051444</v>
       </c>
       <c r="HW4" t="n">
-        <v>-0.9021815109890482</v>
+        <v>0.7922329730782657</v>
       </c>
       <c r="HX4" t="n">
-        <v>-0.8940895530785207</v>
+        <v>0.7425354700369727</v>
       </c>
       <c r="HY4" t="n">
-        <v>0.119050579930067</v>
+        <v>0.6350735732192134</v>
       </c>
       <c r="HZ4" t="n">
-        <v>0.8795672876428232</v>
+        <v>-0.4296464453726319</v>
       </c>
       <c r="IA4" t="n">
-        <v>0.6756639183805333</v>
+        <v>-0.6520919271316398</v>
       </c>
       <c r="IB4" t="n">
-        <v>-0.5047862083190883</v>
+        <v>-0.2032567141294222</v>
       </c>
       <c r="IC4" t="n">
-        <v>-0.6561406245986268</v>
+        <v>-0.3730370229869752</v>
       </c>
       <c r="ID4" t="n">
-        <v>0.4313203879101354</v>
+        <v>-0.8498403145283425</v>
       </c>
       <c r="IE4" t="n">
-        <v>-0.03143588199377572</v>
+        <v>0.8108917571057912</v>
       </c>
       <c r="IF4" t="n">
-        <v>0.4228113003277874</v>
+        <v>0.09039317177428417</v>
       </c>
       <c r="IG4" t="n">
-        <v>0.9578646442931193</v>
+        <v>-0.8260054870793054</v>
       </c>
       <c r="IH4" t="n">
-        <v>-0.799268320668322</v>
+        <v>-0.6485240110202638</v>
       </c>
       <c r="II4" t="n">
-        <v>0.4494461343187116</v>
+        <v>0.8108917571057912</v>
       </c>
       <c r="IJ4" t="n">
-        <v>-0.4835645788894667</v>
+        <v>0.74265895824183</v>
       </c>
       <c r="IK4" t="n">
-        <v>-0.2314346204409181</v>
+        <v>-0.3762836383591883</v>
       </c>
       <c r="IL4" t="n">
-        <v>0.7352998778377384</v>
+        <v>0.3176849314911402</v>
       </c>
       <c r="IM4" t="n">
-        <v>-0.1703804016519591</v>
+        <v>-0.3693338715476542</v>
       </c>
       <c r="IN4" t="n">
-        <v>0.09363726036308984</v>
+        <v>-0.5607465017130498</v>
       </c>
       <c r="IO4" t="n">
-        <v>-0.3919197011948377</v>
+        <v>0.9801935950717969</v>
       </c>
       <c r="IP4" t="n">
-        <v>-0.2070823801718062</v>
-      </c>
-      <c r="IQ4" t="n">
-        <v>-0.8175387572121059</v>
-      </c>
-      <c r="IR4" t="n">
-        <v>0.9541278753951202</v>
-      </c>
-      <c r="IS4" t="n">
-        <v>-0.4586131297845432</v>
-      </c>
-      <c r="IT4" t="n">
-        <v>0.6220955913248454</v>
-      </c>
-      <c r="IU4" t="n">
-        <v>0.5105726498434141</v>
-      </c>
-      <c r="IV4" t="n">
-        <v>0.8175478960468652</v>
-      </c>
-      <c r="IW4" t="n">
-        <v>0.8027451910481638</v>
-      </c>
-      <c r="IX4" t="n">
-        <v>0.7572563082400693</v>
-      </c>
-      <c r="IY4" t="n">
-        <v>-0.3434166637415574</v>
-      </c>
-      <c r="IZ4" t="n">
-        <v>-0.5634943954752737</v>
-      </c>
-      <c r="JA4" t="n">
-        <v>-0.1564903847968857</v>
-      </c>
-      <c r="JB4" t="n">
-        <v>-0.3649193004611249</v>
-      </c>
-      <c r="JC4" t="n">
-        <v>-0.8174466513035384</v>
-      </c>
-      <c r="JD4" t="n">
-        <v>0.7760662999097566</v>
-      </c>
-      <c r="JE4" t="n">
-        <v>0.2308221092802025</v>
-      </c>
-      <c r="JF4" t="n">
-        <v>-0.8706864938059266</v>
-      </c>
-      <c r="JG4" t="n">
-        <v>-0.5602398533223342</v>
-      </c>
-      <c r="JH4" t="n">
-        <v>0.7760662999097566</v>
-      </c>
-      <c r="JI4" t="n">
-        <v>0.8028444244162759</v>
-      </c>
-      <c r="JJ4" t="n">
-        <v>-0.5378509591432369</v>
-      </c>
-      <c r="JK4" t="n">
-        <v>0.2753672086536475</v>
-      </c>
-      <c r="JL4" t="n">
-        <v>0.2355416030778397</v>
-      </c>
-      <c r="JM4" t="n">
-        <v>-0.5066454718933103</v>
-      </c>
-      <c r="JN4" t="n">
-        <v>0.9473188973940335</v>
-      </c>
-      <c r="JO4" t="n">
-        <v>0.8638567873217098</v>
+        <v>0.8861060616348783</v>
       </c>
     </row>
   </sheetData>
